--- a/db/msyql5.7.xlsx
+++ b/db/msyql5.7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21420" windowHeight="10215" activeTab="5"/>
+    <workbookView windowWidth="21420" windowHeight="10215" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="概念" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="258">
   <si>
     <t>登录指令</t>
   </si>
@@ -133,6 +133,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">create </t>
     </r>
     <r>
@@ -171,6 +178,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">drop </t>
     </r>
     <r>
@@ -212,6 +226,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">show </t>
     </r>
     <r>
@@ -270,6 +291,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">show create </t>
     </r>
     <r>
@@ -714,6 +742,9 @@
     <t>BLOB</t>
   </si>
   <si>
+    <t>主要存储图片、音频等</t>
+  </si>
+  <si>
     <t>MEDIUMBLOB</t>
   </si>
   <si>
@@ -775,6 +806,171 @@
   </si>
   <si>
     <t>求</t>
+  </si>
+  <si>
+    <t>比较运算符</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>大于</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>小于</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>等于</t>
+  </si>
+  <si>
+    <t>null=null结果为null</t>
+  </si>
+  <si>
+    <t>&lt;=&gt;</t>
+  </si>
+  <si>
+    <t>安全等于</t>
+  </si>
+  <si>
+    <t>null&lt;=&gt;null结果为1</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>大于等于</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>小于等于</t>
+  </si>
+  <si>
+    <t>!=/&lt;&gt;</t>
+  </si>
+  <si>
+    <t>不等于</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>在in中</t>
+  </si>
+  <si>
+    <t>between.and</t>
+  </si>
+  <si>
+    <t>在两者之间</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>通配符匹配</t>
+  </si>
+  <si>
+    <t>regexp</t>
+  </si>
+  <si>
+    <t>正则匹配</t>
+  </si>
+  <si>
+    <t>is null/isnull</t>
+  </si>
+  <si>
+    <t>是null</t>
+  </si>
+  <si>
+    <t>is not null</t>
+  </si>
+  <si>
+    <t>不是null</t>
+  </si>
+  <si>
+    <t>greatset</t>
+  </si>
+  <si>
+    <t>多参数，返回最大值</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>多参数，返回最小值</t>
+  </si>
+  <si>
+    <t>逻辑运算符</t>
+  </si>
+  <si>
+    <t>not/!</t>
+  </si>
+  <si>
+    <t>求非</t>
+  </si>
+  <si>
+    <t>and/&amp;&amp;</t>
+  </si>
+  <si>
+    <t>求与</t>
+  </si>
+  <si>
+    <t>or/||</t>
+  </si>
+  <si>
+    <t>求或</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>求异或</t>
+  </si>
+  <si>
+    <t>位操作运算符</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>位与</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>位或</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>位非</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>位异或</t>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+  </si>
+  <si>
+    <t>左移</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>右移</t>
   </si>
 </sst>
 </file>
@@ -831,15 +1027,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,33 +1066,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -891,18 +1081,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -921,16 +1111,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,16 +1148,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,7 +1162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,7 +1177,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,7 +1291,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,103 +1333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,55 +1357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,41 +1427,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1288,6 +1443,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,12 +1488,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1338,10 +1528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1350,16 +1540,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1371,116 +1561,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1491,12 +1681,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1518,9 +1711,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,31 +1722,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1946,42 +2121,42 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2154,7 +2329,7 @@
       <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2162,7 +2337,7 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2175,7 +2350,7 @@
       <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E6" t="s">
@@ -2183,7 +2358,7 @@
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E7" t="s">
@@ -2201,8 +2376,8 @@
   <sheetPr/>
   <dimension ref="B1:Q94"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80:C86"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84:L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2217,861 +2392,861 @@
       <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="K20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="6"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="6"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="6"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="6"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="6"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="6"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="3:17">
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="3:17">
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="3:17">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="3:17">
-      <c r="C35" s="3"/>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="3:17">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="3:17">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="3:17">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="3:17">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3" t="s">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="3:17">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3" t="s">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="3:17">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4" t="s">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
     </row>
     <row r="42" spans="3:17">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="3:17">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3" t="s">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
     </row>
     <row r="44" spans="3:17">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="3:17">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="3:17">
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="2:17">
-      <c r="B47" s="4"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="F47" s="3" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="F47" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
@@ -3079,12 +3254,12 @@
       </c>
     </row>
     <row r="57" ht="16.5" spans="3:16">
-      <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="12" t="s">
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="11" t="s">
         <v>105</v>
       </c>
       <c r="I57" s="16"/>
@@ -3093,15 +3268,15 @@
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="8" t="s">
+      <c r="O57" s="12"/>
+      <c r="P57" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="58" ht="16.5" spans="3:16">
-      <c r="C58" s="8"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
       <c r="F58" s="13" t="s">
         <v>107</v>
       </c>
@@ -3109,25 +3284,25 @@
       <c r="H58" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
       <c r="L58" s="14"/>
-      <c r="M58" s="10" t="s">
+      <c r="M58" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N58" s="19"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="8"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="9"/>
     </row>
     <row r="59" ht="16.5" spans="3:16">
       <c r="C59" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="10"/>
       <c r="F59" s="13" t="s">
         <v>112</v>
       </c>
@@ -3135,23 +3310,23 @@
       <c r="H59" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
       <c r="L59" s="14"/>
-      <c r="M59" s="10" t="s">
+      <c r="M59" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N59" s="19"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="8"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="9"/>
     </row>
     <row r="60" ht="16.5" spans="3:16">
       <c r="C60" s="15"/>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="10"/>
       <c r="F60" s="13" t="s">
         <v>116</v>
       </c>
@@ -3159,25 +3334,25 @@
       <c r="H60" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
       <c r="L60" s="14"/>
-      <c r="M60" s="10" t="s">
+      <c r="M60" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="N60" s="19"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="8" t="s">
+      <c r="N60" s="16"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="3:16">
       <c r="C61" s="15"/>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="10"/>
       <c r="F61" s="13" t="s">
         <v>121</v>
       </c>
@@ -3185,25 +3360,25 @@
       <c r="H61" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
       <c r="L61" s="14"/>
-      <c r="M61" s="10" t="s">
+      <c r="M61" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="N61" s="19"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="8" t="s">
+      <c r="N61" s="16"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="62" ht="16.5" spans="3:16">
       <c r="C62" s="15"/>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E62" s="9"/>
+      <c r="E62" s="10"/>
       <c r="F62" s="13" t="s">
         <v>126</v>
       </c>
@@ -3211,25 +3386,25 @@
       <c r="H62" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
       <c r="L62" s="14"/>
-      <c r="M62" s="10" t="s">
+      <c r="M62" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="N62" s="19"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="8" t="s">
+      <c r="N62" s="16"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="3:16">
       <c r="C63" s="15"/>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="10"/>
       <c r="F63" s="13" t="s">
         <v>131</v>
       </c>
@@ -3237,87 +3412,87 @@
       <c r="H63" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
       <c r="L63" s="14"/>
-      <c r="M63" s="10" t="s">
+      <c r="M63" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="N63" s="19"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="8" t="s">
+      <c r="N63" s="16"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="3:16">
       <c r="C64" s="15"/>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="9"/>
+      <c r="E64" s="10"/>
       <c r="F64" s="13" t="s">
         <v>126</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="13"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
       <c r="L64" s="14"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="8"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="9"/>
     </row>
     <row r="65" ht="16.5" spans="3:16">
       <c r="C65" s="15"/>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E65" s="9"/>
+      <c r="E65" s="10"/>
       <c r="F65" s="13" t="s">
         <v>131</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="13"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
       <c r="L65" s="14"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="8"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="9"/>
     </row>
     <row r="66" ht="16.5" spans="3:16">
       <c r="C66" s="15"/>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="9"/>
+      <c r="E66" s="10"/>
       <c r="F66" s="13" t="s">
         <v>138</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="13"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
       <c r="L66" s="14"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="8"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="9"/>
     </row>
     <row r="67" ht="16.5" spans="3:16">
       <c r="C67" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E67" s="9"/>
+      <c r="E67" s="10"/>
       <c r="F67" s="13" t="s">
         <v>112</v>
       </c>
@@ -3325,21 +3500,21 @@
       <c r="H67" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
       <c r="L67" s="14"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="8"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="9"/>
     </row>
     <row r="68" ht="16.5" spans="3:16">
       <c r="C68" s="15"/>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="9"/>
+      <c r="E68" s="10"/>
       <c r="F68" s="13" t="s">
         <v>121</v>
       </c>
@@ -3347,21 +3522,21 @@
       <c r="H68" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
       <c r="L68" s="14"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="8"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="9"/>
     </row>
     <row r="69" ht="16.5" spans="3:16">
       <c r="C69" s="15"/>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="9"/>
+      <c r="E69" s="10"/>
       <c r="F69" s="13" t="s">
         <v>121</v>
       </c>
@@ -3369,21 +3544,21 @@
       <c r="H69" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
       <c r="L69" s="14"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="8"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="9"/>
     </row>
     <row r="70" ht="16.5" spans="3:16">
       <c r="C70" s="15"/>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E70" s="9"/>
+      <c r="E70" s="10"/>
       <c r="F70" s="13" t="s">
         <v>131</v>
       </c>
@@ -3391,21 +3566,21 @@
       <c r="H70" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
       <c r="L70" s="14"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="8"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="9"/>
     </row>
     <row r="71" ht="16.5" spans="3:16">
-      <c r="C71" s="8"/>
-      <c r="D71" s="9" t="s">
+      <c r="C71" s="9"/>
+      <c r="D71" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E71" s="9"/>
+      <c r="E71" s="10"/>
       <c r="F71" s="13" t="s">
         <v>126</v>
       </c>
@@ -3413,155 +3588,155 @@
       <c r="H71" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
       <c r="L71" s="14"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="8"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="9"/>
     </row>
     <row r="72" ht="16.5" spans="3:16">
       <c r="C72" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E72" s="9"/>
+      <c r="E72" s="10"/>
       <c r="F72" s="13" t="s">
         <v>152</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="13"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
       <c r="L72" s="14"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="8" t="s">
+      <c r="M72" s="11"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="3:16">
       <c r="C73" s="15"/>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E73" s="9"/>
+      <c r="E73" s="10"/>
       <c r="F73" s="13" t="s">
         <v>155</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="13"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
       <c r="L73" s="14"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="8" t="s">
+      <c r="M73" s="11"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="3:16">
       <c r="C74" s="15"/>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="10"/>
       <c r="F74" s="13" t="s">
         <v>157</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="13"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
       <c r="L74" s="14"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="8" t="s">
+      <c r="M74" s="11"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="75" ht="16.5" spans="3:16">
       <c r="C75" s="15"/>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E75" s="9"/>
+      <c r="E75" s="10"/>
       <c r="F75" s="13" t="s">
         <v>160</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="13"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
       <c r="L75" s="14"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="8" t="s">
+      <c r="M75" s="11"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="76" ht="16.5" spans="3:16">
       <c r="C76" s="15"/>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E76" s="9"/>
+      <c r="E76" s="10"/>
       <c r="F76" s="13" t="s">
         <v>162</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="13"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
       <c r="L76" s="14"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="8" t="s">
+      <c r="M76" s="11"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="77" ht="16.5" spans="3:16">
       <c r="C77" s="15"/>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E77" s="9"/>
+      <c r="E77" s="10"/>
       <c r="F77" s="13" t="s">
         <v>164</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="13"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
       <c r="L77" s="14"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="8" t="s">
+      <c r="M77" s="11"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="3:16">
       <c r="C78" s="15"/>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E78" s="9"/>
+      <c r="E78" s="10"/>
       <c r="F78" s="13" t="s">
         <v>166</v>
       </c>
@@ -3569,23 +3744,23 @@
       <c r="H78" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
       <c r="L78" s="14"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="8" t="s">
+      <c r="M78" s="11"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="3:16">
       <c r="C79" s="15"/>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E79" s="9"/>
+      <c r="E79" s="10"/>
       <c r="F79" s="13" t="s">
         <v>169</v>
       </c>
@@ -3593,14 +3768,14 @@
       <c r="H79" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
       <c r="L79" s="14"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="8" t="s">
+      <c r="M79" s="11"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="9" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3608,298 +3783,300 @@
       <c r="C80" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E80" s="9"/>
+      <c r="E80" s="10"/>
       <c r="F80" s="13" t="s">
         <v>174</v>
       </c>
       <c r="G80" s="14"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="8"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="9"/>
     </row>
     <row r="81" ht="16.5" spans="3:16">
       <c r="C81" s="15"/>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E81" s="9"/>
+      <c r="E81" s="10"/>
       <c r="F81" s="13" t="s">
         <v>176</v>
       </c>
       <c r="G81" s="14"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="8"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="9"/>
     </row>
     <row r="82" ht="16.5" spans="3:16">
       <c r="C82" s="15"/>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E82" s="9"/>
+      <c r="E82" s="10"/>
       <c r="F82" s="13" t="s">
         <v>178</v>
       </c>
       <c r="G82" s="14"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="8"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="9"/>
     </row>
     <row r="83" ht="16.5" spans="3:16">
       <c r="C83" s="15"/>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E83" s="9"/>
+      <c r="E83" s="10"/>
       <c r="F83" s="13" t="s">
         <v>157</v>
       </c>
       <c r="G83" s="14"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="8" t="s">
+      <c r="H83" s="13"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="84" ht="16.5" spans="3:16">
       <c r="C84" s="15"/>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E84" s="9"/>
+      <c r="E84" s="10"/>
       <c r="F84" s="13" t="s">
         <v>160</v>
       </c>
       <c r="G84" s="14"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="8" t="s">
+      <c r="H84" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="3:16">
       <c r="C85" s="15"/>
-      <c r="D85" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E85" s="9"/>
+      <c r="D85" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E85" s="10"/>
       <c r="F85" s="13" t="s">
         <v>162</v>
       </c>
       <c r="G85" s="14"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="8" t="s">
+      <c r="H85" s="13"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="3:16">
       <c r="C86" s="15"/>
-      <c r="D86" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E86" s="9"/>
+      <c r="D86" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E86" s="10"/>
       <c r="F86" s="13" t="s">
         <v>164</v>
       </c>
       <c r="G86" s="14"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="8" t="s">
+      <c r="H86" s="13"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="3:16">
-      <c r="C87" s="21"/>
-      <c r="D87" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E87" s="9"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="10"/>
       <c r="F87" s="13"/>
       <c r="G87" s="14"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="21"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="18"/>
     </row>
     <row r="88" ht="16.5" spans="3:16">
-      <c r="C88" s="22"/>
-      <c r="D88" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E88" s="9"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" s="10"/>
       <c r="F88" s="13"/>
       <c r="G88" s="14"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="21"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="18"/>
     </row>
     <row r="89" ht="16.5" spans="3:16">
-      <c r="C89" s="22"/>
-      <c r="D89" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E89" s="9"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="10"/>
       <c r="F89" s="13"/>
       <c r="G89" s="14"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="21"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="18"/>
     </row>
     <row r="90" ht="16.5" spans="3:16">
-      <c r="C90" s="22"/>
-      <c r="D90" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E90" s="9"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" s="10"/>
       <c r="F90" s="13"/>
       <c r="G90" s="14"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="21"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="18"/>
     </row>
     <row r="91" ht="16.5" spans="3:16">
-      <c r="C91" s="22"/>
-      <c r="D91" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E91" s="9"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" s="10"/>
       <c r="F91" s="13"/>
       <c r="G91" s="14"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="21"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="18"/>
     </row>
     <row r="92" ht="16.5" spans="3:16">
-      <c r="C92" s="22"/>
-      <c r="D92" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E92" s="9"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" s="10"/>
       <c r="F92" s="13"/>
       <c r="G92" s="14"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="21"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="18"/>
     </row>
     <row r="93" ht="16.5" spans="3:16">
-      <c r="C93" s="22"/>
-      <c r="D93" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E93" s="9"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E93" s="10"/>
       <c r="F93" s="13"/>
       <c r="G93" s="14"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="21"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="18"/>
     </row>
     <row r="94" ht="16.5" spans="3:16">
-      <c r="C94" s="22"/>
-      <c r="D94" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E94" s="9"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E94" s="10"/>
       <c r="F94" s="13"/>
       <c r="G94" s="14"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="25"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="D3:G3"/>
@@ -4036,48 +4213,63 @@
     <mergeCell ref="M79:O79"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:L80"/>
     <mergeCell ref="M80:O80"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:L81"/>
     <mergeCell ref="M81:O81"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:L82"/>
     <mergeCell ref="M82:O82"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:L83"/>
     <mergeCell ref="M83:O83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:L84"/>
     <mergeCell ref="M84:O84"/>
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:L85"/>
     <mergeCell ref="M85:O85"/>
     <mergeCell ref="D86:E86"/>
     <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:L86"/>
     <mergeCell ref="M86:O86"/>
     <mergeCell ref="D87:E87"/>
     <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:L87"/>
     <mergeCell ref="M87:O87"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:L88"/>
     <mergeCell ref="M88:O88"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:L89"/>
     <mergeCell ref="M89:O89"/>
     <mergeCell ref="D90:E90"/>
     <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:L90"/>
     <mergeCell ref="M90:O90"/>
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:L91"/>
     <mergeCell ref="M91:O91"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:L92"/>
     <mergeCell ref="M92:O92"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:L93"/>
     <mergeCell ref="M93:O93"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:L94"/>
     <mergeCell ref="M94:O94"/>
     <mergeCell ref="B3:B20"/>
     <mergeCell ref="B22:B30"/>
@@ -4109,14 +4301,400 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B3:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="B8:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C32"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4125,67 +4703,48 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D6:F10"/>
+  <dimension ref="D6:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:6">
-      <c r="D6" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" s="2"/>
-      <c r="E7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6">
-      <c r="D8" s="2"/>
-      <c r="E8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="D9" s="2"/>
-      <c r="E9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6">
-      <c r="E10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>201</v>
-      </c>
+    <row r="6" spans="4:7">
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="4:7">
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D6:D10"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/db/msyql5.7.xlsx
+++ b/db/msyql5.7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="9"/>
+    <workbookView windowWidth="15150" windowHeight="11670" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="14" r:id="rId1"/>
@@ -1392,6 +1392,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>CREATE FUNCTION</t>
     </r>
     <r>
@@ -1451,6 +1457,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">RETURN </t>
     </r>
     <r>
@@ -1491,6 +1503,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>CREATE FUNCTION</t>
     </r>
     <r>
@@ -1622,6 +1640,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>RETURN</t>
     </r>
     <r>
@@ -1639,6 +1663,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>CREATE FUNCTION</t>
     </r>
     <r>
@@ -1746,6 +1776,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>INSERT</t>
     </r>
     <r>
@@ -1778,6 +1814,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>RETURN</t>
     </r>
     <r>
@@ -1792,6 +1834,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>END</t>
     </r>
     <r>
@@ -2144,7 +2192,7 @@
     <t>s1=s2,结果为0；s1&gt;s2,结果为1；s1&lt;s2，结果为-1；</t>
   </si>
   <si>
-    <t>获取字串</t>
+    <t>获取子串</t>
   </si>
   <si>
     <t>substring(s,pos,len)</t>
@@ -3576,10 +3624,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3651,18 +3699,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3674,30 +3723,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3720,6 +3753,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3727,15 +3783,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3743,15 +3791,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3760,6 +3800,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3805,7 +3853,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3817,25 +3937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3847,13 +3949,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3871,7 +3973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3883,37 +3985,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3925,67 +4033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4051,6 +4099,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4066,28 +4123,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4097,15 +4137,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4121,6 +4152,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4142,9 +4188,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4156,10 +4204,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4168,16 +4216,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4189,116 +4237,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4342,19 +4390,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4421,9 +4460,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4801,42 +4837,42 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="21"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="24"/>
+      <c r="A13" s="21"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4859,81 +4895,81 @@
       <c r="M23" t="s">
         <v>15</v>
       </c>
-      <c r="Q23" s="41" t="s">
+      <c r="Q23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
     </row>
     <row r="24" spans="2:23">
       <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="41"/>
+      <c r="E24" s="19"/>
       <c r="F24" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41" t="s">
+      <c r="H24" s="19"/>
+      <c r="I24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41" t="s">
+      <c r="J24" s="19"/>
+      <c r="K24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
+      <c r="L24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
     </row>
     <row r="25" spans="2:23">
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="19"/>
       <c r="F25" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41" t="s">
+      <c r="H25" s="19"/>
+      <c r="I25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
       <c r="M25" t="s">
         <v>28</v>
       </c>
       <c r="N25" t="s">
         <v>29</v>
       </c>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
     </row>
     <row r="26" spans="14:14">
       <c r="N26" t="s">
@@ -4970,8 +5006,8 @@
   <sheetPr/>
   <dimension ref="C6:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5770,7 +5806,7 @@
       <c r="C3" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="35" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5778,7 +5814,7 @@
       <c r="C4" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="35" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5791,7 +5827,7 @@
       <c r="C6" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="35" t="s">
         <v>153</v>
       </c>
       <c r="E6" t="s">
@@ -5799,7 +5835,7 @@
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="35" t="s">
         <v>155</v>
       </c>
       <c r="E7" t="s">
@@ -5833,861 +5869,861 @@
       <c r="B1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="24"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="24"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="24"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="24"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="24"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="24"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="24"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="24"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="24"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
     </row>
     <row r="32" spans="3:17">
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
     </row>
     <row r="33" spans="3:17">
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
     </row>
     <row r="34" spans="3:17">
-      <c r="C34" s="22"/>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
     </row>
     <row r="35" spans="3:17">
-      <c r="C35" s="22"/>
-      <c r="D35" s="25" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
     </row>
     <row r="36" spans="3:17">
-      <c r="C36" s="22"/>
-      <c r="D36" s="22" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
     </row>
     <row r="37" spans="3:17">
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
     </row>
     <row r="38" spans="3:17">
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
     </row>
     <row r="39" spans="3:17">
-      <c r="C39" s="22"/>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22" t="s">
+      <c r="E39" s="19"/>
+      <c r="F39" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22" t="s">
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
     </row>
     <row r="40" spans="3:17">
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22" t="s">
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
     </row>
     <row r="41" spans="3:17">
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22" t="s">
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
     </row>
     <row r="42" spans="3:17">
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
     </row>
     <row r="43" spans="3:17">
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22" t="s">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22" t="s">
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
     </row>
     <row r="44" spans="3:17">
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
     </row>
     <row r="45" spans="3:17">
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22" t="s">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
     </row>
     <row r="46" spans="3:17">
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22" t="s">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
     </row>
     <row r="47" spans="2:17">
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="F47" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
@@ -6695,826 +6731,826 @@
       </c>
     </row>
     <row r="57" ht="16.5" spans="3:16">
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="28" t="s">
+      <c r="C57" s="23"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="26" t="s">
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="23" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="58" ht="16.5" spans="3:16">
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="30" t="s">
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="G58" s="31"/>
-      <c r="H58" s="30" t="s">
+      <c r="G58" s="28"/>
+      <c r="H58" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="28" t="s">
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="N58" s="33"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="26"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="23"/>
     </row>
     <row r="59" ht="16.5" spans="3:16">
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="30" t="s">
+      <c r="E59" s="24"/>
+      <c r="F59" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="30" t="s">
+      <c r="G59" s="28"/>
+      <c r="H59" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="28" t="s">
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="N59" s="33"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="26"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="23"/>
     </row>
     <row r="60" ht="16.5" spans="3:16">
-      <c r="C60" s="32"/>
-      <c r="D60" s="27" t="s">
+      <c r="C60" s="29"/>
+      <c r="D60" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="30" t="s">
+      <c r="E60" s="24"/>
+      <c r="F60" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="30" t="s">
+      <c r="G60" s="28"/>
+      <c r="H60" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="28" t="s">
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="N60" s="33"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="26" t="s">
+      <c r="N60" s="30"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="23" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="3:16">
-      <c r="C61" s="32"/>
-      <c r="D61" s="27" t="s">
+      <c r="C61" s="29"/>
+      <c r="D61" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="30" t="s">
+      <c r="E61" s="24"/>
+      <c r="F61" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="30" t="s">
+      <c r="G61" s="28"/>
+      <c r="H61" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="28" t="s">
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="N61" s="33"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="26" t="s">
+      <c r="N61" s="30"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="23" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="62" ht="16.5" spans="3:16">
-      <c r="C62" s="32"/>
-      <c r="D62" s="27" t="s">
+      <c r="C62" s="29"/>
+      <c r="D62" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="30" t="s">
+      <c r="E62" s="24"/>
+      <c r="F62" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="30" t="s">
+      <c r="G62" s="28"/>
+      <c r="H62" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="28" t="s">
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="N62" s="33"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="26" t="s">
+      <c r="N62" s="30"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="23" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="3:16">
-      <c r="C63" s="32"/>
-      <c r="D63" s="27" t="s">
+      <c r="C63" s="29"/>
+      <c r="D63" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="E63" s="27"/>
-      <c r="F63" s="30" t="s">
+      <c r="E63" s="24"/>
+      <c r="F63" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="30" t="s">
+      <c r="G63" s="28"/>
+      <c r="H63" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="28" t="s">
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="N63" s="33"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="26" t="s">
+      <c r="N63" s="30"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="23" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="3:16">
-      <c r="C64" s="32"/>
-      <c r="D64" s="27" t="s">
+      <c r="C64" s="29"/>
+      <c r="D64" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="30" t="s">
+      <c r="E64" s="24"/>
+      <c r="F64" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="26"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="23"/>
     </row>
     <row r="65" ht="16.5" spans="3:16">
-      <c r="C65" s="32"/>
-      <c r="D65" s="27" t="s">
+      <c r="C65" s="29"/>
+      <c r="D65" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E65" s="27"/>
-      <c r="F65" s="30" t="s">
+      <c r="E65" s="24"/>
+      <c r="F65" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="G65" s="31"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="26"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="23"/>
     </row>
     <row r="66" ht="16.5" spans="3:16">
-      <c r="C66" s="32"/>
-      <c r="D66" s="27" t="s">
+      <c r="C66" s="29"/>
+      <c r="D66" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="30" t="s">
+      <c r="E66" s="24"/>
+      <c r="F66" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="G66" s="31"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="33"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="26"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="23"/>
     </row>
     <row r="67" ht="16.5" spans="3:16">
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="E67" s="27"/>
-      <c r="F67" s="30" t="s">
+      <c r="E67" s="24"/>
+      <c r="F67" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="G67" s="31"/>
-      <c r="H67" s="30" t="s">
+      <c r="G67" s="28"/>
+      <c r="H67" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="26"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="23"/>
     </row>
     <row r="68" ht="16.5" spans="3:16">
-      <c r="C68" s="32"/>
-      <c r="D68" s="27" t="s">
+      <c r="C68" s="29"/>
+      <c r="D68" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="E68" s="27"/>
-      <c r="F68" s="30" t="s">
+      <c r="E68" s="24"/>
+      <c r="F68" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="G68" s="31"/>
-      <c r="H68" s="30" t="s">
+      <c r="G68" s="28"/>
+      <c r="H68" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="26"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="23"/>
     </row>
     <row r="69" ht="16.5" spans="3:16">
-      <c r="C69" s="32"/>
-      <c r="D69" s="27" t="s">
+      <c r="C69" s="29"/>
+      <c r="D69" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="E69" s="27"/>
-      <c r="F69" s="30" t="s">
+      <c r="E69" s="24"/>
+      <c r="F69" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="G69" s="31"/>
-      <c r="H69" s="30" t="s">
+      <c r="G69" s="28"/>
+      <c r="H69" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="26"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="23"/>
     </row>
     <row r="70" ht="16.5" spans="3:16">
-      <c r="C70" s="32"/>
-      <c r="D70" s="27" t="s">
+      <c r="C70" s="29"/>
+      <c r="D70" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="E70" s="27"/>
-      <c r="F70" s="30" t="s">
+      <c r="E70" s="24"/>
+      <c r="F70" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="G70" s="31"/>
-      <c r="H70" s="30" t="s">
+      <c r="G70" s="28"/>
+      <c r="H70" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="33"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="26"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="23"/>
     </row>
     <row r="71" ht="16.5" spans="3:16">
-      <c r="C71" s="26"/>
-      <c r="D71" s="27" t="s">
+      <c r="C71" s="23"/>
+      <c r="D71" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E71" s="27"/>
-      <c r="F71" s="30" t="s">
+      <c r="E71" s="24"/>
+      <c r="F71" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="G71" s="31"/>
-      <c r="H71" s="30" t="s">
+      <c r="G71" s="28"/>
+      <c r="H71" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="26"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="23"/>
     </row>
     <row r="72" ht="16.5" spans="3:16">
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="E72" s="27"/>
-      <c r="F72" s="30" t="s">
+      <c r="E72" s="24"/>
+      <c r="F72" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="G72" s="31"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="26" t="s">
+      <c r="G72" s="28"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="23" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="3:16">
-      <c r="C73" s="32"/>
-      <c r="D73" s="27" t="s">
+      <c r="C73" s="29"/>
+      <c r="D73" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="E73" s="27"/>
-      <c r="F73" s="30" t="s">
+      <c r="E73" s="24"/>
+      <c r="F73" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="G73" s="31"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="33"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="26" t="s">
+      <c r="G73" s="28"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="23" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="3:16">
-      <c r="C74" s="32"/>
-      <c r="D74" s="27" t="s">
+      <c r="C74" s="29"/>
+      <c r="D74" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="E74" s="27"/>
-      <c r="F74" s="30" t="s">
+      <c r="E74" s="24"/>
+      <c r="F74" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="G74" s="31"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="33"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="26" t="s">
+      <c r="G74" s="28"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="75" ht="16.5" spans="3:16">
-      <c r="C75" s="32"/>
-      <c r="D75" s="27" t="s">
+      <c r="C75" s="29"/>
+      <c r="D75" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="E75" s="27"/>
-      <c r="F75" s="30" t="s">
+      <c r="E75" s="24"/>
+      <c r="F75" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="33"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="26" t="s">
+      <c r="G75" s="28"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="23" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="76" ht="16.5" spans="3:16">
-      <c r="C76" s="32"/>
-      <c r="D76" s="27" t="s">
+      <c r="C76" s="29"/>
+      <c r="D76" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="30" t="s">
+      <c r="E76" s="24"/>
+      <c r="F76" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="G76" s="31"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="33"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="26" t="s">
+      <c r="G76" s="28"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="23" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="77" ht="16.5" spans="3:16">
-      <c r="C77" s="32"/>
-      <c r="D77" s="27" t="s">
+      <c r="C77" s="29"/>
+      <c r="D77" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="30" t="s">
+      <c r="E77" s="24"/>
+      <c r="F77" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="G77" s="31"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="26" t="s">
+      <c r="G77" s="28"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="23" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="3:16">
-      <c r="C78" s="32"/>
-      <c r="D78" s="27" t="s">
+      <c r="C78" s="29"/>
+      <c r="D78" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="E78" s="27"/>
-      <c r="F78" s="30" t="s">
+      <c r="E78" s="24"/>
+      <c r="F78" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="G78" s="31"/>
-      <c r="H78" s="30" t="s">
+      <c r="G78" s="28"/>
+      <c r="H78" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="33"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="26" t="s">
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="23" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="3:16">
-      <c r="C79" s="32"/>
-      <c r="D79" s="27" t="s">
+      <c r="C79" s="29"/>
+      <c r="D79" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="E79" s="27"/>
-      <c r="F79" s="30" t="s">
+      <c r="E79" s="24"/>
+      <c r="F79" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="G79" s="31"/>
-      <c r="H79" s="30" t="s">
+      <c r="G79" s="28"/>
+      <c r="H79" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="26" t="s">
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="23" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="80" ht="16.5" spans="3:16">
-      <c r="C80" s="32" t="s">
+      <c r="C80" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="E80" s="27"/>
-      <c r="F80" s="30" t="s">
+      <c r="E80" s="24"/>
+      <c r="F80" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="G80" s="31"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="26"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="23"/>
     </row>
     <row r="81" ht="16.5" spans="3:16">
-      <c r="C81" s="32"/>
-      <c r="D81" s="27" t="s">
+      <c r="C81" s="29"/>
+      <c r="D81" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="E81" s="27"/>
-      <c r="F81" s="30" t="s">
+      <c r="E81" s="24"/>
+      <c r="F81" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="G81" s="31"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="26"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="23"/>
     </row>
     <row r="82" ht="16.5" spans="3:16">
-      <c r="C82" s="32"/>
-      <c r="D82" s="27" t="s">
+      <c r="C82" s="29"/>
+      <c r="D82" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="E82" s="27"/>
-      <c r="F82" s="30" t="s">
+      <c r="E82" s="24"/>
+      <c r="F82" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="G82" s="31"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="26"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="23"/>
     </row>
     <row r="83" ht="16.5" spans="3:16">
-      <c r="C83" s="32"/>
-      <c r="D83" s="27" t="s">
+      <c r="C83" s="29"/>
+      <c r="D83" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="E83" s="27"/>
-      <c r="F83" s="30" t="s">
+      <c r="E83" s="24"/>
+      <c r="F83" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="33"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="26" t="s">
+      <c r="G83" s="28"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="84" ht="16.5" spans="3:16">
-      <c r="C84" s="32"/>
-      <c r="D84" s="27" t="s">
+      <c r="C84" s="29"/>
+      <c r="D84" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="E84" s="27"/>
-      <c r="F84" s="30" t="s">
+      <c r="E84" s="24"/>
+      <c r="F84" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="G84" s="31"/>
-      <c r="H84" s="30" t="s">
+      <c r="G84" s="28"/>
+      <c r="H84" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="29"/>
-      <c r="P84" s="26" t="s">
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="23" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="3:16">
-      <c r="C85" s="32"/>
-      <c r="D85" s="27" t="s">
+      <c r="C85" s="29"/>
+      <c r="D85" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="E85" s="27"/>
-      <c r="F85" s="30" t="s">
+      <c r="E85" s="24"/>
+      <c r="F85" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="G85" s="31"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="28"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="26" t="s">
+      <c r="G85" s="28"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="23" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="3:16">
-      <c r="C86" s="32"/>
-      <c r="D86" s="27" t="s">
+      <c r="C86" s="29"/>
+      <c r="D86" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="30" t="s">
+      <c r="E86" s="24"/>
+      <c r="F86" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="G86" s="31"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="26" t="s">
+      <c r="G86" s="28"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="23" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="3:16">
-      <c r="C87" s="35"/>
-      <c r="D87" s="27" t="s">
+      <c r="C87" s="32"/>
+      <c r="D87" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="E87" s="27"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="31"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="35"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="30"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="32"/>
     </row>
     <row r="88" ht="16.5" spans="3:16">
-      <c r="C88" s="36"/>
-      <c r="D88" s="27" t="s">
+      <c r="C88" s="33"/>
+      <c r="D88" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="E88" s="27"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="29"/>
-      <c r="P88" s="35"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="32"/>
     </row>
     <row r="89" ht="16.5" spans="3:16">
-      <c r="C89" s="36"/>
-      <c r="D89" s="27" t="s">
+      <c r="C89" s="33"/>
+      <c r="D89" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="E89" s="27"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="31"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="29"/>
-      <c r="P89" s="35"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="32"/>
     </row>
     <row r="90" ht="16.5" spans="3:16">
-      <c r="C90" s="36"/>
-      <c r="D90" s="27" t="s">
+      <c r="C90" s="33"/>
+      <c r="D90" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="E90" s="27"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="31"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="35"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="32"/>
     </row>
     <row r="91" ht="16.5" spans="3:16">
-      <c r="C91" s="36"/>
-      <c r="D91" s="27" t="s">
+      <c r="C91" s="33"/>
+      <c r="D91" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="E91" s="27"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="33"/>
-      <c r="O91" s="29"/>
-      <c r="P91" s="35"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="32"/>
     </row>
     <row r="92" ht="16.5" spans="3:16">
-      <c r="C92" s="36"/>
-      <c r="D92" s="27" t="s">
+      <c r="C92" s="33"/>
+      <c r="D92" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="E92" s="27"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="28"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="29"/>
-      <c r="P92" s="35"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="32"/>
     </row>
     <row r="93" ht="16.5" spans="3:16">
-      <c r="C93" s="36"/>
-      <c r="D93" s="27" t="s">
+      <c r="C93" s="33"/>
+      <c r="D93" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="E93" s="27"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="31"/>
-      <c r="M93" s="28"/>
-      <c r="N93" s="33"/>
-      <c r="O93" s="29"/>
-      <c r="P93" s="35"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="32"/>
     </row>
     <row r="94" ht="16.5" spans="3:16">
-      <c r="C94" s="36"/>
-      <c r="D94" s="27" t="s">
+      <c r="C94" s="33"/>
+      <c r="D94" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="E94" s="27"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="31"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="33"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="37"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="212">
@@ -7945,48 +7981,48 @@
       <c r="C36" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19" t="s">
+      <c r="N36" s="16"/>
+      <c r="O36" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19" t="s">
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19" t="s">
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
     </row>
     <row r="37" spans="13:24">
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="21" t="s">
+      <c r="N37" s="17"/>
+      <c r="O37" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21" t="s">
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21" t="s">
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
     </row>
     <row r="38" spans="2:24">
       <c r="B38" s="10" t="s">
@@ -7995,92 +8031,92 @@
       <c r="C38" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="M38" s="20" t="s">
+      <c r="M38" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="21" t="s">
+      <c r="N38" s="17"/>
+      <c r="O38" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21" t="s">
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21" t="s">
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
     </row>
     <row r="39" spans="13:24">
-      <c r="M39" s="20" t="s">
+      <c r="M39" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="21" t="s">
+      <c r="N39" s="17"/>
+      <c r="O39" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21" t="s">
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21" t="s">
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
     </row>
     <row r="40" spans="13:24">
-      <c r="M40" s="20" t="s">
+      <c r="M40" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="N40" s="20"/>
-      <c r="O40" s="21" t="s">
+      <c r="N40" s="17"/>
+      <c r="O40" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21" t="s">
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21" t="s">
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
     </row>
     <row r="41" spans="13:24">
-      <c r="M41" s="20" t="s">
+      <c r="M41" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N41" s="20"/>
-      <c r="O41" s="21" t="s">
+      <c r="N41" s="17"/>
+      <c r="O41" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21" t="s">
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21" t="s">
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
     </row>
     <row r="42" spans="3:24">
       <c r="C42" s="10" t="s">
@@ -8092,26 +8128,26 @@
       <c r="H42"/>
       <c r="K42"/>
       <c r="L42"/>
-      <c r="M42" s="20" t="s">
+      <c r="M42" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="N42" s="20"/>
-      <c r="O42" s="21" t="s">
+      <c r="N42" s="17"/>
+      <c r="O42" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="42" t="s">
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21" t="s">
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
     </row>
     <row r="43" spans="3:24">
       <c r="C43" s="10" t="s">
@@ -8121,26 +8157,26 @@
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
-      <c r="M43" s="20" t="s">
+      <c r="M43" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="N43" s="20"/>
-      <c r="O43" s="21" t="s">
+      <c r="N43" s="17"/>
+      <c r="O43" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21" t="s">
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21" t="s">
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
     </row>
     <row r="44" spans="3:24">
       <c r="C44" s="10" t="s">
@@ -8150,26 +8186,26 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
-      <c r="M44" s="20" t="s">
+      <c r="M44" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="N44" s="20"/>
-      <c r="O44" s="21" t="s">
+      <c r="N44" s="17"/>
+      <c r="O44" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21" t="s">
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21" t="s">
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
     </row>
     <row r="45" spans="3:24">
       <c r="C45" s="10" t="s">
@@ -8182,52 +8218,52 @@
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
-      <c r="M45" s="20" t="s">
+      <c r="M45" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="N45" s="20"/>
-      <c r="O45" s="21" t="s">
+      <c r="N45" s="17"/>
+      <c r="O45" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21" t="s">
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21" t="s">
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
     </row>
     <row r="46" spans="9:24">
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
-      <c r="M46" s="20" t="s">
+      <c r="M46" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="N46" s="20"/>
-      <c r="O46" s="21" t="s">
+      <c r="N46" s="17"/>
+      <c r="O46" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21" t="s">
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21" t="s">
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
     </row>
     <row r="47" spans="9:13">
       <c r="I47"/>
@@ -8406,8 +8442,8 @@
   <sheetPr/>
   <dimension ref="B2:Z146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8473,1433 +8509,1433 @@
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="12"/>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="15" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="12"/>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="15" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="12"/>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="12"/>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="12"/>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="15" t="s">
+      <c r="F36" s="14"/>
+      <c r="G36" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="12"/>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="12"/>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="15" t="s">
+      <c r="F38" s="14"/>
+      <c r="G38" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="2:14">
       <c r="B39" s="12"/>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
     </row>
     <row r="40" spans="2:14">
       <c r="B40" s="12"/>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="15" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" spans="2:14">
       <c r="B41" s="12"/>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="15" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="12"/>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="15" t="s">
+      <c r="F42" s="14"/>
+      <c r="G42" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="12"/>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="15" t="s">
+      <c r="F43" s="14"/>
+      <c r="G43" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="12"/>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="15" t="s">
+      <c r="F44" s="14"/>
+      <c r="G44" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
     </row>
     <row r="45" spans="2:14">
       <c r="B45" s="12"/>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="15" t="s">
+      <c r="F45" s="14"/>
+      <c r="G45" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="12"/>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="15" t="s">
+      <c r="F46" s="14"/>
+      <c r="G46" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="12"/>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="15" t="s">
+      <c r="F47" s="14"/>
+      <c r="G47" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="12"/>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" s="12"/>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="15" t="s">
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
     </row>
     <row r="50" spans="2:14">
       <c r="B50" s="12"/>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="15" t="s">
+      <c r="F50" s="14"/>
+      <c r="G50" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" s="12"/>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="15" t="s">
+      <c r="F51" s="14"/>
+      <c r="G51" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" s="12"/>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="15" t="s">
+      <c r="F52" s="14"/>
+      <c r="G52" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
     </row>
     <row r="53" spans="2:14">
       <c r="B53" s="12"/>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="15" t="s">
+      <c r="F53" s="14"/>
+      <c r="G53" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
     </row>
     <row r="54" spans="2:14">
       <c r="B54" s="12"/>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="15" t="s">
+      <c r="F54" s="14"/>
+      <c r="G54" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
     </row>
     <row r="55" spans="2:14">
       <c r="B55" s="12"/>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="15" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
     </row>
     <row r="56" spans="2:14">
       <c r="B56" s="12"/>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="15" t="s">
+      <c r="F56" s="14"/>
+      <c r="G56" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
     </row>
     <row r="57" spans="2:14">
       <c r="B57" s="12"/>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="15" t="s">
+      <c r="F57" s="14"/>
+      <c r="G57" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
     </row>
     <row r="58" spans="2:14">
       <c r="B58" s="12"/>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="15" t="s">
+      <c r="F58" s="14"/>
+      <c r="G58" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" s="12"/>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" s="12"/>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="15" t="s">
+      <c r="F60" s="14"/>
+      <c r="G60" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
     </row>
     <row r="61" spans="2:24">
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="15" t="s">
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="16"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="14"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
     </row>
     <row r="62" spans="2:24">
       <c r="B62" s="12"/>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="15" t="s">
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="16"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14"/>
     </row>
     <row r="63" spans="2:24">
       <c r="B63" s="12"/>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="15" t="s">
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
     </row>
     <row r="64" spans="2:24">
       <c r="B64" s="12"/>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="14"/>
     </row>
     <row r="65" spans="2:24">
       <c r="B65" s="12"/>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="14"/>
+      <c r="X65" s="14"/>
     </row>
     <row r="66" spans="2:24">
       <c r="B66" s="12"/>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="15" t="s">
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
     </row>
     <row r="67" spans="2:24">
       <c r="B67" s="12"/>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="15" t="s">
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="16"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="14"/>
+      <c r="X67" s="14"/>
     </row>
     <row r="68" spans="2:24">
       <c r="B68" s="12"/>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="15" t="s">
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
     </row>
     <row r="69" spans="2:24">
       <c r="B69" s="12"/>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="15" t="s">
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
+      <c r="X69" s="14"/>
     </row>
     <row r="70" spans="2:24">
       <c r="B70" s="12"/>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
     </row>
     <row r="71" spans="2:24">
       <c r="B71" s="12"/>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
     </row>
     <row r="72" spans="2:24">
       <c r="B72" s="12"/>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="14"/>
     </row>
     <row r="73" spans="2:24">
       <c r="B73" s="12"/>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="14"/>
     </row>
     <row r="74" spans="2:24">
       <c r="B74" s="12"/>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="15" t="s">
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="16"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
     </row>
     <row r="75" spans="2:24">
       <c r="B75" s="12"/>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="15" t="s">
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="16"/>
-      <c r="W75" s="16"/>
-      <c r="X75" s="16"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="14"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="14"/>
+      <c r="X75" s="14"/>
     </row>
     <row r="76" spans="2:24">
       <c r="B76" s="12"/>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="15" t="s">
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="16"/>
-      <c r="W76" s="16"/>
-      <c r="X76" s="16"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="14"/>
+      <c r="W76" s="14"/>
+      <c r="X76" s="14"/>
     </row>
     <row r="77" spans="2:24">
       <c r="B77" s="12"/>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="15" t="s">
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="16"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="16"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="14"/>
+      <c r="V77" s="14"/>
+      <c r="W77" s="14"/>
+      <c r="X77" s="14"/>
     </row>
     <row r="78" spans="2:24">
       <c r="B78" s="12"/>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="15" t="s">
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="16"/>
-      <c r="W78" s="16"/>
-      <c r="X78" s="16"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="14"/>
+      <c r="V78" s="14"/>
+      <c r="W78" s="14"/>
+      <c r="X78" s="14"/>
     </row>
     <row r="79" spans="2:24">
       <c r="B79" s="12"/>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="15" t="s">
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="16"/>
-      <c r="X79" s="16"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
     </row>
     <row r="80" spans="2:24">
       <c r="B80" s="12"/>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="16"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="14"/>
+      <c r="W80" s="14"/>
+      <c r="X80" s="14"/>
     </row>
     <row r="81" spans="2:24">
       <c r="B81" s="12"/>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="15" t="s">
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="16"/>
-      <c r="W81" s="16"/>
-      <c r="X81" s="16"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="14"/>
     </row>
     <row r="82" spans="2:24">
       <c r="B82" s="12"/>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="16"/>
-      <c r="W82" s="16"/>
-      <c r="X82" s="16"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="14"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="14"/>
     </row>
     <row r="83" spans="2:24">
       <c r="B83" s="12"/>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16"/>
-      <c r="W83" s="16"/>
-      <c r="X83" s="16"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="14"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="14"/>
     </row>
     <row r="84" spans="2:24">
       <c r="B84" s="12"/>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="15" t="s">
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="16"/>
-      <c r="T84" s="16"/>
-      <c r="U84" s="16"/>
-      <c r="V84" s="16"/>
-      <c r="W84" s="16"/>
-      <c r="X84" s="16"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="14"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="14"/>
     </row>
     <row r="85" spans="2:24">
       <c r="B85" s="12"/>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="15" t="s">
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="16"/>
-      <c r="T85" s="16"/>
-      <c r="U85" s="16"/>
-      <c r="V85" s="16"/>
-      <c r="W85" s="16"/>
-      <c r="X85" s="16"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="14"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="14"/>
+      <c r="W85" s="14"/>
+      <c r="X85" s="14"/>
     </row>
     <row r="86" spans="2:24">
       <c r="B86" s="12"/>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="15" t="s">
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="16"/>
-      <c r="T86" s="16"/>
-      <c r="U86" s="16"/>
-      <c r="V86" s="16"/>
-      <c r="W86" s="16"/>
-      <c r="X86" s="16"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="14"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="14"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="14"/>
     </row>
     <row r="87" spans="2:24">
       <c r="B87" s="12"/>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="15" t="s">
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="16"/>
-      <c r="T87" s="16"/>
-      <c r="U87" s="16"/>
-      <c r="V87" s="16"/>
-      <c r="W87" s="16"/>
-      <c r="X87" s="16"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="14"/>
+      <c r="U87" s="14"/>
+      <c r="V87" s="14"/>
+      <c r="W87" s="14"/>
+      <c r="X87" s="14"/>
     </row>
     <row r="88" spans="2:16">
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="15" t="s">
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
     </row>
     <row r="89" spans="2:16">
       <c r="B89" s="12"/>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="15" t="s">
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
     </row>
     <row r="90" spans="2:16">
       <c r="B90" s="12"/>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="15" t="s">
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
     </row>
     <row r="91" spans="2:16">
       <c r="B91" s="12"/>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="15" t="s">
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
     </row>
     <row r="92" spans="2:26">
       <c r="B92" s="12"/>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="U92" s="14" t="s">
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
+      <c r="U92" s="12" t="s">
         <v>553</v>
       </c>
       <c r="V92" s="12"/>
@@ -9910,1240 +9946,1240 @@
     </row>
     <row r="93" spans="2:26">
       <c r="B93" s="12"/>
-      <c r="E93" s="15" t="s">
+      <c r="E93" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
-      <c r="U93" s="18" t="s">
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
+      <c r="U93" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="V93" s="15" t="s">
+      <c r="V93" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="W93" s="16"/>
-      <c r="X93" s="16"/>
-      <c r="Y93" s="16"/>
-      <c r="Z93" s="16"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="14"/>
+      <c r="Y93" s="14"/>
+      <c r="Z93" s="14"/>
     </row>
     <row r="94" spans="2:26">
       <c r="B94" s="12"/>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="U94" s="18" t="s">
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="U94" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="V94" s="15" t="s">
+      <c r="V94" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="W94" s="16"/>
-      <c r="X94" s="16"/>
-      <c r="Y94" s="16"/>
-      <c r="Z94" s="16"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="14"/>
+      <c r="Y94" s="14"/>
+      <c r="Z94" s="14"/>
     </row>
     <row r="95" spans="2:26">
       <c r="B95" s="12"/>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
-      <c r="U95" s="18" t="s">
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="U95" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="V95" s="15" t="s">
+      <c r="V95" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="W95" s="16"/>
-      <c r="X95" s="16"/>
-      <c r="Y95" s="16"/>
-      <c r="Z95" s="16"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="14"/>
+      <c r="Y95" s="14"/>
+      <c r="Z95" s="14"/>
     </row>
     <row r="96" spans="2:26">
       <c r="B96" s="12"/>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="E96" s="15" t="s">
+      <c r="E96" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="15" t="s">
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
-      <c r="U96" s="18" t="s">
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="U96" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="V96" s="15" t="s">
+      <c r="V96" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="W96" s="16"/>
-      <c r="X96" s="16"/>
-      <c r="Y96" s="16"/>
-      <c r="Z96" s="16"/>
+      <c r="W96" s="14"/>
+      <c r="X96" s="14"/>
+      <c r="Y96" s="14"/>
+      <c r="Z96" s="14"/>
     </row>
     <row r="97" spans="2:26">
       <c r="B97" s="12"/>
-      <c r="E97" s="15" t="s">
+      <c r="E97" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="15" t="s">
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
-      <c r="U97" s="18" t="s">
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="U97" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="V97" s="15" t="s">
+      <c r="V97" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="W97" s="16"/>
-      <c r="X97" s="16"/>
-      <c r="Y97" s="16"/>
-      <c r="Z97" s="16"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="14"/>
+      <c r="Y97" s="14"/>
+      <c r="Z97" s="14"/>
     </row>
     <row r="98" spans="2:26">
       <c r="B98" s="12"/>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="15" t="s">
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="U98" s="18" t="s">
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="U98" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="V98" s="15" t="s">
+      <c r="V98" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="W98" s="16"/>
-      <c r="X98" s="16"/>
-      <c r="Y98" s="16"/>
-      <c r="Z98" s="16"/>
+      <c r="W98" s="14"/>
+      <c r="X98" s="14"/>
+      <c r="Y98" s="14"/>
+      <c r="Z98" s="14"/>
     </row>
     <row r="99" spans="2:26">
       <c r="B99" s="12"/>
-      <c r="E99" s="15" t="s">
+      <c r="E99" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="15" t="s">
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="U99" s="18" t="s">
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="U99" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="V99" s="15" t="s">
+      <c r="V99" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="W99" s="16"/>
-      <c r="X99" s="16"/>
-      <c r="Y99" s="16"/>
-      <c r="Z99" s="16"/>
+      <c r="W99" s="14"/>
+      <c r="X99" s="14"/>
+      <c r="Y99" s="14"/>
+      <c r="Z99" s="14"/>
     </row>
     <row r="100" spans="2:26">
       <c r="B100" s="12"/>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="E100" s="15" t="s">
+      <c r="E100" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="15" t="s">
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="U100" s="18" t="s">
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="U100" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="V100" s="15" t="s">
+      <c r="V100" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="W100" s="16"/>
-      <c r="X100" s="16"/>
-      <c r="Y100" s="16"/>
-      <c r="Z100" s="16"/>
+      <c r="W100" s="14"/>
+      <c r="X100" s="14"/>
+      <c r="Y100" s="14"/>
+      <c r="Z100" s="14"/>
     </row>
     <row r="101" spans="2:26">
       <c r="B101" s="12"/>
-      <c r="E101" s="15" t="s">
+      <c r="E101" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="15" t="s">
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="14" t="s">
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="12" t="s">
         <v>588</v>
       </c>
       <c r="R101" s="12"/>
       <c r="S101" s="12"/>
-      <c r="U101" s="18" t="s">
+      <c r="U101" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="V101" s="15" t="s">
+      <c r="V101" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="W101" s="16"/>
-      <c r="X101" s="16"/>
-      <c r="Y101" s="16"/>
-      <c r="Z101" s="16"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="14"/>
+      <c r="Y101" s="14"/>
+      <c r="Z101" s="14"/>
     </row>
     <row r="102" spans="2:26">
       <c r="B102" s="12"/>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="E102" s="15" t="s">
+      <c r="E102" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="15" t="s">
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="16"/>
-      <c r="N102" s="16"/>
-      <c r="O102" s="16"/>
-      <c r="P102" s="16"/>
-      <c r="Q102" s="15" t="s">
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
-      <c r="U102" s="18" t="s">
+      <c r="R102" s="14"/>
+      <c r="S102" s="14"/>
+      <c r="U102" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="V102" s="15" t="s">
+      <c r="V102" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="W102" s="16"/>
-      <c r="X102" s="16"/>
-      <c r="Y102" s="16"/>
-      <c r="Z102" s="16"/>
+      <c r="W102" s="14"/>
+      <c r="X102" s="14"/>
+      <c r="Y102" s="14"/>
+      <c r="Z102" s="14"/>
     </row>
     <row r="103" spans="2:26">
       <c r="B103" s="12"/>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="E103" s="15" t="s">
+      <c r="E103" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="15" t="s">
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="16"/>
-      <c r="N103" s="16"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="15" t="s">
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="R103" s="15"/>
-      <c r="S103" s="15"/>
-      <c r="U103" s="18" t="s">
+      <c r="R103" s="14"/>
+      <c r="S103" s="14"/>
+      <c r="U103" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="V103" s="15" t="s">
+      <c r="V103" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="W103" s="16"/>
-      <c r="X103" s="16"/>
-      <c r="Y103" s="16"/>
-      <c r="Z103" s="16"/>
+      <c r="W103" s="14"/>
+      <c r="X103" s="14"/>
+      <c r="Y103" s="14"/>
+      <c r="Z103" s="14"/>
     </row>
     <row r="104" spans="2:26">
       <c r="B104" s="12"/>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="15" t="s">
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="R104" s="15"/>
-      <c r="S104" s="15"/>
-      <c r="U104" s="18" t="s">
+      <c r="R104" s="14"/>
+      <c r="S104" s="14"/>
+      <c r="U104" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="V104" s="15" t="s">
+      <c r="V104" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="W104" s="16"/>
-      <c r="X104" s="16"/>
-      <c r="Y104" s="16"/>
-      <c r="Z104" s="16"/>
+      <c r="W104" s="14"/>
+      <c r="X104" s="14"/>
+      <c r="Y104" s="14"/>
+      <c r="Z104" s="14"/>
     </row>
     <row r="105" spans="2:26">
       <c r="B105" s="12"/>
-      <c r="E105" s="15" t="s">
+      <c r="E105" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="15" t="s">
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="J105" s="16"/>
-      <c r="K105" s="16"/>
-      <c r="L105" s="16"/>
-      <c r="M105" s="16"/>
-      <c r="N105" s="16"/>
-      <c r="O105" s="16"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="15" t="s">
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="U105" s="18" t="s">
+      <c r="R105" s="14"/>
+      <c r="S105" s="14"/>
+      <c r="U105" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="V105" s="15" t="s">
+      <c r="V105" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="W105" s="16"/>
-      <c r="X105" s="16"/>
-      <c r="Y105" s="16"/>
-      <c r="Z105" s="16"/>
+      <c r="W105" s="14"/>
+      <c r="X105" s="14"/>
+      <c r="Y105" s="14"/>
+      <c r="Z105" s="14"/>
     </row>
     <row r="106" spans="2:26">
       <c r="B106" s="12"/>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="15" t="s">
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="15" t="s">
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="R106" s="15"/>
-      <c r="S106" s="15"/>
-      <c r="U106" s="18" t="s">
+      <c r="R106" s="14"/>
+      <c r="S106" s="14"/>
+      <c r="U106" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="V106" s="15" t="s">
+      <c r="V106" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="W106" s="16"/>
-      <c r="X106" s="16"/>
-      <c r="Y106" s="16"/>
-      <c r="Z106" s="16"/>
+      <c r="W106" s="14"/>
+      <c r="X106" s="14"/>
+      <c r="Y106" s="14"/>
+      <c r="Z106" s="14"/>
     </row>
     <row r="107" spans="2:26">
       <c r="B107" s="12"/>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="15" t="s">
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
-      <c r="L107" s="16"/>
-      <c r="M107" s="16"/>
-      <c r="N107" s="16"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="15" t="s">
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="14"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="R107" s="15"/>
-      <c r="S107" s="15"/>
-      <c r="U107" s="18" t="s">
+      <c r="R107" s="14"/>
+      <c r="S107" s="14"/>
+      <c r="U107" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="V107" s="15" t="s">
+      <c r="V107" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="W107" s="16"/>
-      <c r="X107" s="16"/>
-      <c r="Y107" s="16"/>
-      <c r="Z107" s="16"/>
+      <c r="W107" s="14"/>
+      <c r="X107" s="14"/>
+      <c r="Y107" s="14"/>
+      <c r="Z107" s="14"/>
     </row>
     <row r="108" spans="2:26">
       <c r="B108" s="12"/>
-      <c r="E108" s="15" t="s">
+      <c r="E108" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="15" t="s">
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="J108" s="16"/>
-      <c r="K108" s="16"/>
-      <c r="L108" s="16"/>
-      <c r="M108" s="16"/>
-      <c r="N108" s="16"/>
-      <c r="O108" s="16"/>
-      <c r="P108" s="16"/>
-      <c r="Q108" s="15" t="s">
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="R108" s="15"/>
-      <c r="S108" s="15"/>
-      <c r="U108" s="18" t="s">
+      <c r="R108" s="14"/>
+      <c r="S108" s="14"/>
+      <c r="U108" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="V108" s="15" t="s">
+      <c r="V108" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="W108" s="16"/>
-      <c r="X108" s="16"/>
-      <c r="Y108" s="16"/>
-      <c r="Z108" s="16"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="14"/>
+      <c r="Y108" s="14"/>
+      <c r="Z108" s="14"/>
     </row>
     <row r="109" spans="2:26">
       <c r="B109" s="12"/>
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="E109" s="15" t="s">
+      <c r="E109" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="15" t="s">
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="J109" s="16"/>
-      <c r="K109" s="16"/>
-      <c r="L109" s="16"/>
-      <c r="M109" s="16"/>
-      <c r="N109" s="16"/>
-      <c r="O109" s="16"/>
-      <c r="P109" s="16"/>
-      <c r="Q109" s="15" t="s">
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="R109" s="15"/>
-      <c r="S109" s="15"/>
-      <c r="U109" s="18" t="s">
+      <c r="R109" s="14"/>
+      <c r="S109" s="14"/>
+      <c r="U109" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="V109" s="15" t="s">
+      <c r="V109" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="W109" s="16"/>
-      <c r="X109" s="16"/>
-      <c r="Y109" s="16"/>
-      <c r="Z109" s="16"/>
+      <c r="W109" s="14"/>
+      <c r="X109" s="14"/>
+      <c r="Y109" s="14"/>
+      <c r="Z109" s="14"/>
     </row>
     <row r="110" spans="2:26">
       <c r="B110" s="12"/>
-      <c r="E110" s="15" t="s">
+      <c r="E110" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="15" t="s">
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="J110" s="16"/>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="16"/>
-      <c r="N110" s="16"/>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16"/>
-      <c r="Q110" s="15" t="s">
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="R110" s="15"/>
-      <c r="S110" s="15"/>
-      <c r="U110" s="18" t="s">
+      <c r="R110" s="14"/>
+      <c r="S110" s="14"/>
+      <c r="U110" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="V110" s="15" t="s">
+      <c r="V110" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="W110" s="16"/>
-      <c r="X110" s="16"/>
-      <c r="Y110" s="16"/>
-      <c r="Z110" s="16"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="14"/>
+      <c r="Y110" s="14"/>
+      <c r="Z110" s="14"/>
     </row>
     <row r="111" spans="2:26">
       <c r="B111" s="12"/>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="E111" s="15" t="s">
+      <c r="E111" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="15" t="s">
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="J111" s="16"/>
-      <c r="K111" s="16"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="16"/>
-      <c r="N111" s="16"/>
-      <c r="O111" s="16"/>
-      <c r="P111" s="16"/>
-      <c r="Q111" s="15" t="s">
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="R111" s="15"/>
-      <c r="S111" s="15"/>
-      <c r="U111" s="18" t="s">
+      <c r="R111" s="14"/>
+      <c r="S111" s="14"/>
+      <c r="U111" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="V111" s="15" t="s">
+      <c r="V111" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="W111" s="16"/>
-      <c r="X111" s="16"/>
-      <c r="Y111" s="16"/>
-      <c r="Z111" s="16"/>
+      <c r="W111" s="14"/>
+      <c r="X111" s="14"/>
+      <c r="Y111" s="14"/>
+      <c r="Z111" s="14"/>
     </row>
     <row r="112" spans="2:26">
       <c r="B112" s="12"/>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="E112" s="15" t="s">
+      <c r="E112" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="15" t="s">
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="J112" s="16"/>
-      <c r="K112" s="16"/>
-      <c r="L112" s="16"/>
-      <c r="M112" s="16"/>
-      <c r="N112" s="16"/>
-      <c r="O112" s="16"/>
-      <c r="P112" s="16"/>
-      <c r="Q112" s="15" t="s">
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="R112" s="15"/>
-      <c r="S112" s="15"/>
-      <c r="U112" s="18" t="s">
+      <c r="R112" s="14"/>
+      <c r="S112" s="14"/>
+      <c r="U112" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="V112" s="15" t="s">
+      <c r="V112" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="W112" s="16"/>
-      <c r="X112" s="16"/>
-      <c r="Y112" s="16"/>
-      <c r="Z112" s="16"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="14"/>
+      <c r="Y112" s="14"/>
+      <c r="Z112" s="14"/>
     </row>
     <row r="113" spans="2:26">
       <c r="B113" s="12"/>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="E113" s="15" t="s">
+      <c r="E113" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="15" t="s">
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="14"/>
+      <c r="L113" s="14"/>
+      <c r="M113" s="14"/>
+      <c r="N113" s="14"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="R113" s="15"/>
-      <c r="S113" s="15"/>
-      <c r="U113" s="18" t="s">
+      <c r="R113" s="14"/>
+      <c r="S113" s="14"/>
+      <c r="U113" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="V113" s="15" t="s">
+      <c r="V113" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="W113" s="16"/>
-      <c r="X113" s="16"/>
-      <c r="Y113" s="16"/>
-      <c r="Z113" s="16"/>
+      <c r="W113" s="14"/>
+      <c r="X113" s="14"/>
+      <c r="Y113" s="14"/>
+      <c r="Z113" s="14"/>
     </row>
     <row r="114" spans="2:26">
       <c r="B114" s="12"/>
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="E114" s="15" t="s">
+      <c r="E114" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="15" t="s">
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="J114" s="16"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16"/>
-      <c r="Q114" s="15" t="s">
+      <c r="J114" s="14"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="14"/>
+      <c r="M114" s="14"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="R114" s="15"/>
-      <c r="S114" s="15"/>
-      <c r="U114" s="18" t="s">
+      <c r="R114" s="14"/>
+      <c r="S114" s="14"/>
+      <c r="U114" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="V114" s="15" t="s">
+      <c r="V114" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="W114" s="16"/>
-      <c r="X114" s="16"/>
-      <c r="Y114" s="16"/>
-      <c r="Z114" s="16"/>
+      <c r="W114" s="14"/>
+      <c r="X114" s="14"/>
+      <c r="Y114" s="14"/>
+      <c r="Z114" s="14"/>
     </row>
     <row r="115" spans="2:26">
       <c r="B115" s="12"/>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="E115" s="15" t="s">
+      <c r="E115" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="15" t="s">
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="J115" s="16"/>
-      <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="16"/>
-      <c r="O115" s="16"/>
-      <c r="P115" s="16"/>
-      <c r="Q115" s="15" t="s">
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="14"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="14"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14" t="s">
         <v>662</v>
       </c>
-      <c r="R115" s="15"/>
-      <c r="S115" s="15"/>
-      <c r="U115" s="18" t="s">
+      <c r="R115" s="14"/>
+      <c r="S115" s="14"/>
+      <c r="U115" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="V115" s="15" t="s">
+      <c r="V115" s="14" t="s">
         <v>664</v>
       </c>
-      <c r="W115" s="16"/>
-      <c r="X115" s="16"/>
-      <c r="Y115" s="16"/>
-      <c r="Z115" s="16"/>
+      <c r="W115" s="14"/>
+      <c r="X115" s="14"/>
+      <c r="Y115" s="14"/>
+      <c r="Z115" s="14"/>
     </row>
     <row r="116" spans="2:26">
       <c r="B116" s="12"/>
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="E116" s="15" t="s">
+      <c r="E116" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="16"/>
-      <c r="L116" s="16"/>
-      <c r="M116" s="16"/>
-      <c r="N116" s="16"/>
-      <c r="O116" s="16"/>
-      <c r="P116" s="16"/>
-      <c r="Q116" s="15" t="s">
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="14"/>
+      <c r="M116" s="14"/>
+      <c r="N116" s="14"/>
+      <c r="O116" s="14"/>
+      <c r="P116" s="14"/>
+      <c r="Q116" s="14" t="s">
         <v>666</v>
       </c>
-      <c r="R116" s="15"/>
-      <c r="S116" s="15"/>
-      <c r="U116" s="18" t="s">
+      <c r="R116" s="14"/>
+      <c r="S116" s="14"/>
+      <c r="U116" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="V116" s="15" t="s">
+      <c r="V116" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="W116" s="16"/>
-      <c r="X116" s="16"/>
-      <c r="Y116" s="16"/>
-      <c r="Z116" s="16"/>
+      <c r="W116" s="14"/>
+      <c r="X116" s="14"/>
+      <c r="Y116" s="14"/>
+      <c r="Z116" s="14"/>
     </row>
     <row r="117" spans="2:26">
       <c r="B117" s="12"/>
-      <c r="E117" s="15" t="s">
+      <c r="E117" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="16"/>
-      <c r="L117" s="16"/>
-      <c r="M117" s="16"/>
-      <c r="N117" s="16"/>
-      <c r="O117" s="16"/>
-      <c r="P117" s="16"/>
-      <c r="Q117" s="15" t="s">
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="14"/>
+      <c r="M117" s="14"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="14"/>
+      <c r="P117" s="14"/>
+      <c r="Q117" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="R117" s="15"/>
-      <c r="S117" s="15"/>
-      <c r="U117" s="18" t="s">
+      <c r="R117" s="14"/>
+      <c r="S117" s="14"/>
+      <c r="U117" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="V117" s="15" t="s">
+      <c r="V117" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="W117" s="16"/>
-      <c r="X117" s="16"/>
-      <c r="Y117" s="16"/>
-      <c r="Z117" s="16"/>
+      <c r="W117" s="14"/>
+      <c r="X117" s="14"/>
+      <c r="Y117" s="14"/>
+      <c r="Z117" s="14"/>
     </row>
     <row r="118" spans="2:26">
       <c r="B118" s="12"/>
-      <c r="E118" s="15" t="s">
+      <c r="E118" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="16"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="16"/>
-      <c r="N118" s="16"/>
-      <c r="O118" s="16"/>
-      <c r="P118" s="16"/>
-      <c r="Q118" s="15" t="s">
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="14"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="14"/>
+      <c r="P118" s="14"/>
+      <c r="Q118" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="R118" s="15"/>
-      <c r="S118" s="15"/>
-      <c r="U118" s="18" t="s">
+      <c r="R118" s="14"/>
+      <c r="S118" s="14"/>
+      <c r="U118" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="V118" s="15" t="s">
+      <c r="V118" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="W118" s="16"/>
-      <c r="X118" s="16"/>
-      <c r="Y118" s="16"/>
-      <c r="Z118" s="16"/>
+      <c r="W118" s="14"/>
+      <c r="X118" s="14"/>
+      <c r="Y118" s="14"/>
+      <c r="Z118" s="14"/>
     </row>
     <row r="119" spans="2:26">
       <c r="B119" s="12"/>
-      <c r="E119" s="15" t="s">
+      <c r="E119" s="14" t="s">
         <v>677</v>
       </c>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="16"/>
-      <c r="N119" s="16"/>
-      <c r="O119" s="16"/>
-      <c r="P119" s="16"/>
-      <c r="Q119" s="15" t="s">
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14"/>
+      <c r="N119" s="14"/>
+      <c r="O119" s="14"/>
+      <c r="P119" s="14"/>
+      <c r="Q119" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="R119" s="15"/>
-      <c r="S119" s="15"/>
-      <c r="U119" s="18" t="s">
+      <c r="R119" s="14"/>
+      <c r="S119" s="14"/>
+      <c r="U119" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="V119" s="15" t="s">
+      <c r="V119" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="W119" s="16"/>
-      <c r="X119" s="16"/>
-      <c r="Y119" s="16"/>
-      <c r="Z119" s="16"/>
+      <c r="W119" s="14"/>
+      <c r="X119" s="14"/>
+      <c r="Y119" s="14"/>
+      <c r="Z119" s="14"/>
     </row>
     <row r="120" spans="2:26">
       <c r="B120" s="12"/>
-      <c r="E120" s="15" t="s">
+      <c r="E120" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="16"/>
-      <c r="N120" s="16"/>
-      <c r="O120" s="16"/>
-      <c r="P120" s="16"/>
-      <c r="Q120" s="15" t="s">
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="14"/>
+      <c r="P120" s="14"/>
+      <c r="Q120" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="R120" s="15"/>
-      <c r="S120" s="15"/>
-      <c r="U120" s="18" t="s">
+      <c r="R120" s="14"/>
+      <c r="S120" s="14"/>
+      <c r="U120" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="V120" s="15" t="s">
+      <c r="V120" s="14" t="s">
         <v>684</v>
       </c>
-      <c r="W120" s="16"/>
-      <c r="X120" s="16"/>
-      <c r="Y120" s="16"/>
-      <c r="Z120" s="16"/>
+      <c r="W120" s="14"/>
+      <c r="X120" s="14"/>
+      <c r="Y120" s="14"/>
+      <c r="Z120" s="14"/>
     </row>
     <row r="121" spans="2:26">
       <c r="B121" s="12"/>
-      <c r="E121" s="15" t="s">
+      <c r="E121" s="14" t="s">
         <v>685</v>
       </c>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="16"/>
-      <c r="L121" s="16"/>
-      <c r="M121" s="16"/>
-      <c r="N121" s="16"/>
-      <c r="O121" s="16"/>
-      <c r="P121" s="16"/>
-      <c r="Q121" s="15" t="s">
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="14"/>
+      <c r="O121" s="14"/>
+      <c r="P121" s="14"/>
+      <c r="Q121" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="R121" s="15"/>
-      <c r="S121" s="15"/>
-      <c r="U121" s="18" t="s">
+      <c r="R121" s="14"/>
+      <c r="S121" s="14"/>
+      <c r="U121" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="V121" s="15" t="s">
+      <c r="V121" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="W121" s="16"/>
-      <c r="X121" s="16"/>
-      <c r="Y121" s="16"/>
-      <c r="Z121" s="16"/>
+      <c r="W121" s="14"/>
+      <c r="X121" s="14"/>
+      <c r="Y121" s="14"/>
+      <c r="Z121" s="14"/>
     </row>
     <row r="122" spans="2:26">
       <c r="B122" s="12"/>
-      <c r="E122" s="15" t="s">
+      <c r="E122" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="16"/>
-      <c r="L122" s="16"/>
-      <c r="M122" s="16"/>
-      <c r="N122" s="16"/>
-      <c r="O122" s="16"/>
-      <c r="P122" s="16"/>
-      <c r="U122" s="18" t="s">
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
+      <c r="O122" s="14"/>
+      <c r="P122" s="14"/>
+      <c r="U122" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="V122" s="15" t="s">
+      <c r="V122" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="W122" s="16"/>
-      <c r="X122" s="16"/>
-      <c r="Y122" s="16"/>
-      <c r="Z122" s="16"/>
+      <c r="W122" s="14"/>
+      <c r="X122" s="14"/>
+      <c r="Y122" s="14"/>
+      <c r="Z122" s="14"/>
     </row>
     <row r="123" spans="2:26">
       <c r="B123" s="12"/>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="E123" s="15" t="s">
+      <c r="E123" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="16"/>
-      <c r="L123" s="16"/>
-      <c r="M123" s="16"/>
-      <c r="N123" s="16"/>
-      <c r="O123" s="16"/>
-      <c r="P123" s="16"/>
-      <c r="U123" s="18" t="s">
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14"/>
+      <c r="O123" s="14"/>
+      <c r="P123" s="14"/>
+      <c r="U123" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="V123" s="15" t="s">
+      <c r="V123" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="W123" s="16"/>
-      <c r="X123" s="16"/>
-      <c r="Y123" s="16"/>
-      <c r="Z123" s="16"/>
+      <c r="W123" s="14"/>
+      <c r="X123" s="14"/>
+      <c r="Y123" s="14"/>
+      <c r="Z123" s="14"/>
     </row>
     <row r="124" spans="2:26">
       <c r="B124" s="12"/>
-      <c r="E124" s="15" t="s">
+      <c r="E124" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="16"/>
-      <c r="N124" s="16"/>
-      <c r="O124" s="16"/>
-      <c r="P124" s="16"/>
-      <c r="U124" s="18" t="s">
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="14"/>
+      <c r="N124" s="14"/>
+      <c r="O124" s="14"/>
+      <c r="P124" s="14"/>
+      <c r="U124" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="V124" s="15" t="s">
+      <c r="V124" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="W124" s="16"/>
-      <c r="X124" s="16"/>
-      <c r="Y124" s="16"/>
-      <c r="Z124" s="16"/>
+      <c r="W124" s="14"/>
+      <c r="X124" s="14"/>
+      <c r="Y124" s="14"/>
+      <c r="Z124" s="14"/>
     </row>
     <row r="125" spans="2:5">
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="E125" s="18" t="s">
+      <c r="E125" s="11" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="126" spans="2:8">
       <c r="B126" s="12"/>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="E126" s="18" t="s">
+      <c r="E126" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="H126" s="18" t="s">
+      <c r="H126" s="11" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="127" spans="2:5">
       <c r="B127" s="12"/>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="E127" s="18" t="s">
+      <c r="E127" s="11" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="12"/>
-      <c r="E128" s="18" t="s">
+      <c r="E128" s="11" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="129" spans="2:8">
       <c r="B129" s="12"/>
-      <c r="E129" s="18" t="s">
+      <c r="E129" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="H129" s="18" t="s">
+      <c r="H129" s="11" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="130" spans="2:5">
       <c r="B130" s="12"/>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="11" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="12"/>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="11" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="132" spans="2:5">
       <c r="B132" s="12"/>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="E132" s="11" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="133" spans="2:5">
       <c r="B133" s="12"/>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="E133" s="18" t="s">
+      <c r="E133" s="11" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="134" spans="2:8">
       <c r="B134" s="12"/>
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="E134" s="18" t="s">
+      <c r="E134" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="H134" s="18" t="s">
+      <c r="H134" s="11" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="135" spans="2:8">
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="E135" s="18" t="s">
+      <c r="E135" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="H135" s="18" t="s">
+      <c r="H135" s="11" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="136" spans="2:8">
       <c r="B136" s="12"/>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="H136" s="18" t="s">
+      <c r="H136" s="11" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="137" spans="2:8">
       <c r="B137" s="12"/>
-      <c r="E137" s="18" t="s">
+      <c r="E137" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="H137" s="18" t="s">
+      <c r="H137" s="11" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="138" spans="2:5">
       <c r="B138" s="12"/>
-      <c r="E138" s="18" t="s">
+      <c r="E138" s="11" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="139" spans="2:5">
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="C139" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E139" s="11" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="140" spans="2:5">
       <c r="B140" s="12"/>
-      <c r="E140" s="18" t="s">
+      <c r="E140" s="11" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="141" spans="2:5">
       <c r="B141" s="12"/>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="11" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="142" spans="2:5">
       <c r="B142" s="12"/>
-      <c r="C142" s="14" t="s">
+      <c r="C142" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="E142" s="18" t="s">
+      <c r="E142" s="11" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="12"/>
-      <c r="E143" s="18" t="s">
+      <c r="E143" s="11" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="144" spans="2:5">
       <c r="B144" s="12"/>
-      <c r="E144" s="18" t="s">
+      <c r="E144" s="11" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="145" spans="2:5">
       <c r="B145" s="12"/>
-      <c r="E145" s="18" t="s">
+      <c r="E145" s="11" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="146" spans="2:8">
       <c r="B146" s="12"/>
-      <c r="C146" s="14" t="s">
+      <c r="C146" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="H146" s="18" t="s">
+      <c r="H146" s="11" t="s">
         <v>740</v>
       </c>
     </row>
